--- a/Checklists_Vadim_HW.xlsx
+++ b/Checklists_Vadim_HW.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Surname" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="107">
   <si>
     <t>Выполнила: Анастасия Боборико</t>
   </si>
@@ -124,13 +124,226 @@
   </si>
   <si>
     <t>- Допустимые спец. символы после @почта. - только (?) буквы</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Report ID </t>
+  </si>
+  <si>
+    <t>Ввод пустого значения</t>
+  </si>
+  <si>
+    <t>Оставить поле пустым</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Ввод одного символа кириллицей</t>
+  </si>
+  <si>
+    <t>qwerty.</t>
+  </si>
+  <si>
+    <t>Успешная регистрация</t>
+  </si>
+  <si>
+    <t>qwerty-</t>
+  </si>
+  <si>
+    <t>qwerty_</t>
+  </si>
+  <si>
+    <t>Ввод цифры</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ввод граничного количества символов латиницей (129)</t>
+  </si>
+  <si>
+    <t>Ввод латиницей разным регистром</t>
+  </si>
+  <si>
+    <t>Qwerty</t>
+  </si>
+  <si>
+    <t>Ввод максимального количества символов латиницей с запрещенными знаками (128)</t>
+  </si>
+  <si>
+    <t>Ввод одного символа латиницей</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Ввод 2-х символов латиницей</t>
+  </si>
+  <si>
+    <t>Ввод 3-х символов латиницей</t>
+  </si>
+  <si>
+    <t>Ввод максимального количества символов латиницей (128)</t>
+  </si>
+  <si>
+    <t>Ввод граничного количества символов латиницей (127)</t>
+  </si>
+  <si>
+    <t>Ввод одного разрешенного спецсимвола</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>BUG_01</t>
+  </si>
+  <si>
+    <t>BUG_02</t>
+  </si>
+  <si>
+    <t>BUG_03</t>
+  </si>
+  <si>
+    <t>BUG_04</t>
+  </si>
+  <si>
+    <t>BUG_05</t>
+  </si>
+  <si>
+    <t>BUG_06</t>
+  </si>
+  <si>
+    <t>BUG_07</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Cq</t>
+  </si>
+  <si>
+    <t>Cqa</t>
+  </si>
+  <si>
+    <t>Cq!@a</t>
+  </si>
+  <si>
+    <t>fhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjosdifjiodhffhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjosd</t>
+  </si>
+  <si>
+    <t>fhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjosdifjiodhffhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjos</t>
+  </si>
+  <si>
+    <t>Ф</t>
+  </si>
+  <si>
+    <t>Ввод латиницей с разрешенными спецсимволами</t>
+  </si>
+  <si>
+    <t>Ввод латиницей с запрещенными спецсимволами</t>
+  </si>
+  <si>
+    <t>Ввод латиницей с разрешенными спецсимовлами</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>qwу</t>
+  </si>
+  <si>
+    <t>Ввод латиницей с запрещенными спецсимовлами</t>
+  </si>
+  <si>
+    <t>Ввод латиницей с цифрами</t>
+  </si>
+  <si>
+    <t>fhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjosdifjiodhffhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjosdA</t>
+  </si>
+  <si>
+    <t>fhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjosdifjiodhffhhhhhhhhhhhhhhdkdddddddaslkjflsifjlsifhsidlfjlsdfjosdifjos1</t>
+  </si>
+  <si>
+    <t>Sychi@k</t>
+  </si>
+  <si>
+    <t>BUG_08</t>
+  </si>
+  <si>
+    <t>BUG_09</t>
+  </si>
+  <si>
+    <t>BUG_10</t>
+  </si>
+  <si>
+    <t>BUG_11</t>
+  </si>
+  <si>
+    <t>BUG_12</t>
+  </si>
+  <si>
+    <t>BUG_13</t>
+  </si>
+  <si>
+    <t>BUG_14</t>
+  </si>
+  <si>
+    <t>BUG_15</t>
+  </si>
+  <si>
+    <t>BUG_16</t>
+  </si>
+  <si>
+    <t>BUG_17</t>
+  </si>
+  <si>
+    <t>BUG_18</t>
+  </si>
+  <si>
+    <t>Sychi:k</t>
+  </si>
+  <si>
+    <t>Sychi?k</t>
+  </si>
+  <si>
+    <t>Sychi!k</t>
+  </si>
+  <si>
+    <t>Sychi11k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +367,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA61400"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +425,38 @@
         <bgColor rgb="FFFFE883"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9EC"/>
+        <bgColor rgb="FFFFD9EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45A920"/>
+        <bgColor rgb="FF45A920"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF91F00"/>
+        <bgColor rgb="FFF91F00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFA1F6EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFA0E786"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -258,11 +533,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -273,6 +717,99 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,6 +823,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A40"/>
     </sheetView>
   </sheetViews>
@@ -611,327 +1199,338 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="19.8" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="19.8" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" ht="16.8" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="16.8" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="19.2" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" ht="16.8" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="19.2" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B33:D33"/>
@@ -939,21 +1538,6 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="A28:A40"/>
     <mergeCell ref="B5:D5"/>
@@ -965,12 +1549,16 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A19:A27"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B13:D13"/>
@@ -983,24 +1571,888 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.6">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.6">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.6">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="72">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="72">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="74.400000000000006" customHeight="1">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="72">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.6">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.6">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.6">
+      <c r="A5" s="52">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="52">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="72">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="52">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="72">
+      <c r="A9" s="52">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="52">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="52">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
+      <c r="A12" s="52">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" s="52">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="52">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2">
+      <c r="A15" s="52">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="52">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2">
+      <c r="A17" s="52">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72">
+      <c r="A18" s="52">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="52">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="52">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="52">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="50"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>